--- a/xlsx/花花公子_intext.xlsx
+++ b/xlsx/花花公子_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>花花公子</t>
   </si>
@@ -29,7 +29,7 @@
     <t>休·赫夫纳</t>
   </si>
   <si>
-    <t>政策_政策_美國_花花公子</t>
+    <t>政策_政策_美国_花花公子</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Men%27s_magazines</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -65,9 +65,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%80%A7</t>
   </si>
   <si>
@@ -77,13 +74,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>成人雜誌</t>
+    <t>成人杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%82%A1%E7%A5%A8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約股票交易所</t>
+    <t>纽约股票交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%8A%E7%89%A9</t>
@@ -95,13 +92,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>電視</t>
+    <t>电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電影</t>
+    <t>电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
@@ -119,25 +116,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E8%A3%9D</t>
   </si>
   <si>
-    <t>時裝</t>
+    <t>时装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>飲食</t>
+    <t>饮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>體育</t>
+    <t>体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E7%AF%87%E6%95%85%E4%BA%8B</t>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E5%91%B3</t>
@@ -161,37 +158,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%94%A2</t>
   </si>
   <si>
-    <t>中產</t>
+    <t>中产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>娛樂</t>
+    <t>娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E8%93%AE%C2%B7%E5%A4%A2%E9%9C%B2</t>
   </si>
   <si>
-    <t>瑪麗蓮·夢露</t>
+    <t>玛丽莲·梦露</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E6%9B%86</t>
   </si>
   <si>
-    <t>月曆</t>
+    <t>月历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A3%E6%A8%93_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>閣樓 (雜誌)</t>
+    <t>阁楼 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%9F%8B%E6%81%A9</t>
   </si>
   <si>
-    <t>約翰·韋恩</t>
+    <t>约翰·韦恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%8D%A1%E7%89%B9</t>
@@ -203,13 +200,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E7%89%B9%E7%BE%85</t>
   </si>
   <si>
-    <t>卡斯特羅</t>
+    <t>卡斯特罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>羅素</t>
+    <t>罗素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8E%84%E6%99%AE%E4%BB%A3%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·厄普代克</t>
+    <t>约翰·厄普代克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD</t>
   </si>
   <si>
-    <t>頭</t>
+    <t>头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A9%E8%86%80</t>
@@ -335,13 +332,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%AE%E5%A8%9C%E5%9C%96</t>
   </si>
   <si>
-    <t>蓮娜圖</t>
+    <t>莲娜图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>地區</t>
+    <t>地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
@@ -359,13 +356,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E7%B6%93%E7%BF%B0</t>
   </si>
   <si>
-    <t>鄭經翰</t>
+    <t>郑经翰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E5%B3%B6%E6%96%B0%E8%81%9E%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>星島新聞集團</t>
+    <t>星岛新闻集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E4%BB%99</t>
@@ -377,25 +374,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E6%96%87%E9%9B%85</t>
   </si>
   <si>
-    <t>鄭文雅</t>
+    <t>郑文雅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E5%92%8C%E5%9C%8B%E9%9A%9B%E5%A4%9A%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>協和國際多媒體</t>
+    <t>协和国际多媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E5%AE%89%E9%80%B2</t>
   </si>
   <si>
-    <t>許安進</t>
+    <t>许安进</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -407,13 +404,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -461,13 +458,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
-    <t>英屬香港</t>
+    <t>英属香港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -539,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Audit_Bureau_of_Circulations_(North_America)</t>
@@ -1137,7 +1134,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -1163,10 +1160,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -1192,10 +1189,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -1221,10 +1218,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1250,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -1279,10 +1276,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1308,10 +1305,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1337,10 +1334,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1366,10 +1363,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1395,10 +1392,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1424,10 +1421,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1453,10 +1450,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1482,10 +1479,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1511,10 +1508,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1540,10 +1537,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1569,10 +1566,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1598,10 +1595,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1627,10 +1624,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1656,10 +1653,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1685,10 +1682,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1714,10 +1711,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1743,10 +1740,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1772,10 +1769,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1801,10 +1798,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1830,10 +1827,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1859,10 +1856,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1888,10 +1885,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1917,10 +1914,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1946,10 +1943,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1975,10 +1972,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2004,10 +2001,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2033,10 +2030,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2062,10 +2059,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2091,10 +2088,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2120,10 +2117,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2149,10 +2146,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2178,10 +2175,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2207,10 +2204,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2236,10 +2233,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2265,10 +2262,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2294,10 +2291,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2323,10 +2320,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2352,10 +2349,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2381,10 +2378,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2410,10 +2407,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2439,10 +2436,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2468,10 +2465,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2497,10 +2494,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -2526,10 +2523,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -2555,10 +2552,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2584,10 +2581,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2613,10 +2610,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2642,10 +2639,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2671,10 +2668,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2700,10 +2697,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2729,10 +2726,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2758,10 +2755,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2787,10 +2784,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2816,10 +2813,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2845,10 +2842,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2874,10 +2871,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2903,10 +2900,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2932,10 +2929,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2961,10 +2958,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2990,10 +2987,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3019,10 +3016,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3048,10 +3045,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3077,10 +3074,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3106,10 +3103,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3135,10 +3132,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3164,10 +3161,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3193,10 +3190,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3222,10 +3219,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3251,10 +3248,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3280,10 +3277,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3309,10 +3306,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3338,10 +3335,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3367,10 +3364,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3396,10 +3393,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3425,10 +3422,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3454,10 +3451,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3483,10 +3480,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3512,10 +3509,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3541,10 +3538,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
